--- a/Documentacion/Metricas campaña 3.xlsx
+++ b/Documentacion/Metricas campaña 3.xlsx
@@ -1394,7 +1394,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1437,9 +1437,9 @@
         <f>SUM(Hoja2!E2:E32)</f>
         <v>1818</v>
       </c>
-      <c r="E3" s="13">
-        <f>Hoja5!C1</f>
-        <v>6.1606160616061603</v>
+      <c r="E3" s="1">
+        <f>ROUND(Hoja5!C1,2)</f>
+        <v>6.16</v>
       </c>
       <c r="F3" s="23">
         <f>SUM(Hoja6!I2:I32)</f>
@@ -1458,8 +1458,8 @@
         <v>1961</v>
       </c>
       <c r="E4" s="1">
-        <f>Hoja5!C2</f>
-        <v>4.9464558898521167</v>
+        <f>ROUND(Hoja5!C2,2)</f>
+        <v>4.95</v>
       </c>
       <c r="F4" s="3">
         <f>SUM(Hoja6!I33:I63)</f>
@@ -1478,8 +1478,8 @@
         <v>1817</v>
       </c>
       <c r="E5" s="1">
-        <f>Hoja5!C3</f>
-        <v>5.9988992845349474</v>
+        <f>ROUND(Hoja5!C3,2)</f>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>SUM(Hoja6!I64:I94)</f>
@@ -1497,9 +1497,9 @@
         <f>SUM(Hoja2!E95:E125)</f>
         <v>1863</v>
       </c>
-      <c r="E6" s="5">
-        <f>Hoja5!C4</f>
-        <v>4.8845947396672038</v>
+      <c r="E6" s="1">
+        <f>ROUND(Hoja5!C4,2)</f>
+        <v>4.88</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(Hoja6!I95:I125)</f>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="E9" s="28">
         <f>AVERAGE(E3:E4)</f>
-        <v>5.5535359757291385</v>
+        <v>5.5549999999999997</v>
       </c>
       <c r="F9" s="29">
         <f>SUM(F3:F4)</f>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="E12" s="28">
         <f>AVERAGE(E3:E6)</f>
-        <v>5.4976414939151068</v>
+        <v>5.4974999999999996</v>
       </c>
       <c r="F12" s="29">
         <f>SUM(F3:F6)</f>
@@ -1578,7 +1578,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D3 D4:D6" formulaRange="1"/>
-    <ignoredError sqref="E9 E12" formula="1"/>
+    <ignoredError sqref="E12" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Documentacion/Metricas campaña 3.xlsx
+++ b/Documentacion/Metricas campaña 3.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="LaNacion-Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="LaNacion-Resultados" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
@@ -117,18 +117,6 @@
     <t>octubre</t>
   </si>
   <si>
-    <t>Ernesto Hernandez</t>
-  </si>
-  <si>
-    <t>Josefina Cavallo</t>
-  </si>
-  <si>
-    <t>Graciela Thompson</t>
-  </si>
-  <si>
-    <t>Tamara Garibotti</t>
-  </si>
-  <si>
     <t>BULGING_DATE</t>
   </si>
   <si>
@@ -516,10 +504,22 @@
     <t>Herman</t>
   </si>
   <si>
-    <t>Total German</t>
-  </si>
-  <si>
     <t>Total Campaña La Nacion</t>
+  </si>
+  <si>
+    <t>alanacion1</t>
+  </si>
+  <si>
+    <t>alanacion2</t>
+  </si>
+  <si>
+    <t>alanacion3</t>
+  </si>
+  <si>
+    <t>alanacion4</t>
+  </si>
+  <si>
+    <t>slanacion1</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1366,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1">
@@ -1377,10 +1377,10 @@
         <v>125</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1394,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1404,7 +1404,7 @@
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="22" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>31</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1">
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>31</v>
@@ -1497,7 +1497,7 @@
         <f>SUM(Hoja2!E95:E125)</f>
         <v>1863</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <f>ROUND(Hoja5!C4,2)</f>
         <v>4.88</v>
       </c>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1">
       <c r="B9" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>31</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1">
       <c r="B12" s="27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>31</v>
@@ -5332,36 +5332,36 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="15">
         <v>0.85625000000000007</v>
@@ -5384,13 +5384,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="15">
         <v>0.84444444444444444</v>
@@ -5413,13 +5413,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="15">
         <v>0.79722222222222217</v>
@@ -5442,13 +5442,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="15">
         <v>0.81944444444444453</v>
@@ -5471,13 +5471,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="15">
         <v>0.79513888888888884</v>
@@ -5500,13 +5500,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" s="15">
         <v>0.87291666666666667</v>
@@ -5529,13 +5529,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="15">
         <v>0.8618055555555556</v>
@@ -5558,13 +5558,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" s="15">
         <v>0.87222222222222223</v>
@@ -5587,13 +5587,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="15">
         <v>0.84722222222222221</v>
@@ -5616,13 +5616,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="15">
         <v>0.8208333333333333</v>
@@ -5645,13 +5645,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="15">
         <v>0.81388888888888899</v>
@@ -5674,13 +5674,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" s="15">
         <v>0.7944444444444444</v>
@@ -5703,13 +5703,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" s="15">
         <v>0.81388888888888899</v>
@@ -5732,13 +5732,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="15">
         <v>0.81597222222222221</v>
@@ -5761,13 +5761,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="15">
         <v>0.80763888888888891</v>
@@ -5790,13 +5790,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" s="15">
         <v>0.85069444444444453</v>
@@ -5819,13 +5819,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="15">
         <v>0.82916666666666661</v>
@@ -5848,13 +5848,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D19" s="15">
         <v>0.87222222222222223</v>
@@ -5877,13 +5877,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="15">
         <v>0.79513888888888884</v>
@@ -5906,13 +5906,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D21" s="15">
         <v>0.81319444444444444</v>
@@ -5935,13 +5935,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D22" s="15">
         <v>0.85763888888888884</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D23" s="15">
         <v>0.8534722222222223</v>
@@ -5993,13 +5993,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" s="15">
         <v>0.83750000000000002</v>
@@ -6022,13 +6022,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="15">
         <v>0.86736111111111114</v>
@@ -6051,13 +6051,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D26" s="15">
         <v>0.8222222222222223</v>
@@ -6080,13 +6080,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" s="15">
         <v>0.8125</v>
@@ -6109,13 +6109,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D28" s="15">
         <v>0.86388888888888893</v>
@@ -6138,13 +6138,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" s="15">
         <v>0.83124999999999993</v>
@@ -6167,13 +6167,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="15">
         <v>0.82430555555555562</v>
@@ -6196,13 +6196,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D31" s="15">
         <v>0.8125</v>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D32" s="15">
         <v>0.82430555555555562</v>
@@ -6254,13 +6254,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D33" s="15">
         <v>0.6</v>
@@ -6283,13 +6283,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34" s="15">
         <v>0.60138888888888886</v>
@@ -6312,13 +6312,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D35" s="15">
         <v>0.59930555555555554</v>
@@ -6341,13 +6341,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D36" s="15">
         <v>0.56111111111111112</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D37" s="15">
         <v>0.59513888888888888</v>
@@ -6399,13 +6399,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D38" s="15">
         <v>0.54861111111111105</v>
@@ -6428,13 +6428,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39" s="15">
         <v>0.58888888888888891</v>
@@ -6457,13 +6457,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D40" s="15">
         <v>0.60833333333333328</v>
@@ -6486,13 +6486,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D41" s="15">
         <v>0.56180555555555556</v>
@@ -6515,13 +6515,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D42" s="15">
         <v>0.61944444444444446</v>
@@ -6544,13 +6544,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" s="15">
         <v>0.59791666666666665</v>
@@ -6573,13 +6573,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D44" s="15">
         <v>0.6020833333333333</v>
@@ -6602,13 +6602,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D45" s="15">
         <v>0.60625000000000007</v>
@@ -6631,13 +6631,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D46" s="15">
         <v>0.58888888888888891</v>
@@ -6660,13 +6660,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D47" s="15">
         <v>0.61041666666666672</v>
@@ -6689,13 +6689,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D48" s="15">
         <v>0.56458333333333333</v>
@@ -6718,13 +6718,13 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D49" s="15">
         <v>0.54999999999999993</v>
@@ -6747,13 +6747,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50" s="15">
         <v>0.59930555555555554</v>
@@ -6776,13 +6776,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D51" s="15">
         <v>0.6166666666666667</v>
@@ -6805,13 +6805,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="15">
         <v>0.5625</v>
@@ -6834,13 +6834,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D53" s="15">
         <v>0.55208333333333337</v>
@@ -6863,13 +6863,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D54" s="15">
         <v>0.5756944444444444</v>
@@ -6892,13 +6892,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D55" s="15">
         <v>0.59027777777777779</v>
@@ -6921,13 +6921,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D56" s="15">
         <v>0.61875000000000002</v>
@@ -6950,13 +6950,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D57" s="15">
         <v>0.61111111111111105</v>
@@ -6979,13 +6979,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D58" s="15">
         <v>0.55347222222222225</v>
@@ -7008,13 +7008,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D59" s="15">
         <v>0.56527777777777777</v>
@@ -7037,13 +7037,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D60" s="15">
         <v>0.57500000000000007</v>
@@ -7066,13 +7066,13 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D61" s="15">
         <v>0.56180555555555556</v>
@@ -7095,13 +7095,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D62" s="15">
         <v>0.54791666666666672</v>
@@ -7124,13 +7124,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D63" s="15">
         <v>0.61875000000000002</v>
@@ -7153,13 +7153,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D64" s="15">
         <v>0.55486111111111114</v>
@@ -7182,13 +7182,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D65" s="15">
         <v>0.5493055555555556</v>
@@ -7211,13 +7211,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D66" s="15">
         <v>0.6020833333333333</v>
@@ -7240,13 +7240,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D67" s="15">
         <v>0.59861111111111109</v>
@@ -7269,13 +7269,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D68" s="15">
         <v>0.57222222222222219</v>
@@ -7298,13 +7298,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D69" s="15">
         <v>0.54722222222222217</v>
@@ -7327,13 +7327,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D70" s="15">
         <v>0.5493055555555556</v>
@@ -7356,13 +7356,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D71" s="15">
         <v>0.59305555555555556</v>
@@ -7385,13 +7385,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D72" s="15">
         <v>0.5708333333333333</v>
@@ -7414,13 +7414,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D73" s="15">
         <v>0.57638888888888895</v>
@@ -7443,13 +7443,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D74" s="15">
         <v>0.62083333333333335</v>
@@ -7472,13 +7472,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D75" s="15">
         <v>0.59027777777777779</v>
@@ -7501,13 +7501,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D76" s="15">
         <v>0.61388888888888882</v>
@@ -7530,13 +7530,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D77" s="15">
         <v>0.56874999999999998</v>
@@ -7559,13 +7559,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D78" s="15">
         <v>0.56527777777777777</v>
@@ -7588,13 +7588,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D79" s="15">
         <v>0.60555555555555551</v>
@@ -7617,13 +7617,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D80" s="15">
         <v>0.61944444444444446</v>
@@ -7646,13 +7646,13 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D81" s="15">
         <v>0.59722222222222221</v>
@@ -7675,13 +7675,13 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D82" s="15">
         <v>0.59444444444444444</v>
@@ -7704,13 +7704,13 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D83" s="15">
         <v>0.54652777777777783</v>
@@ -7733,13 +7733,13 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D84" s="15">
         <v>0.59166666666666667</v>
@@ -7762,13 +7762,13 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D85" s="15">
         <v>0.5854166666666667</v>
@@ -7792,13 +7792,13 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D86" s="15">
         <v>0.55555555555555558</v>
@@ -7822,13 +7822,13 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D87" s="15">
         <v>0.56111111111111112</v>
@@ -7851,13 +7851,13 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D88" s="15">
         <v>0.56874999999999998</v>
@@ -7880,13 +7880,13 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D89" s="15">
         <v>0.59722222222222221</v>
@@ -7909,13 +7909,13 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D90" s="15">
         <v>0.60555555555555551</v>
@@ -7938,13 +7938,13 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D91" s="15">
         <v>0.54999999999999993</v>
@@ -7967,13 +7967,13 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D92" s="15">
         <v>0.55208333333333337</v>
@@ -7996,13 +7996,13 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D93" s="15">
         <v>0.6166666666666667</v>
@@ -8025,13 +8025,13 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D94" s="15">
         <v>0.54513888888888895</v>
@@ -8054,10 +8054,10 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C95" s="19">
         <v>0.40208333333333335</v>
@@ -8083,10 +8083,10 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C96" s="19">
         <v>0.40902777777777777</v>
@@ -8112,13 +8112,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D97" s="15">
         <v>0.70277777777777783</v>
@@ -8141,13 +8141,13 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D98" s="15">
         <v>0.69236111111111109</v>
@@ -8170,10 +8170,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C99" s="19">
         <v>0.38055555555555554</v>
@@ -8199,13 +8199,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D100" s="15">
         <v>0.69791666666666663</v>
@@ -8228,13 +8228,13 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D101" s="15">
         <v>0.66805555555555562</v>
@@ -8257,10 +8257,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C102" s="19">
         <v>0.40208333333333335</v>
@@ -8286,10 +8286,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C103" s="19">
         <v>0.41180555555555554</v>
@@ -8315,10 +8315,10 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C104" s="19">
         <v>0.40138888888888885</v>
@@ -8344,10 +8344,10 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C105" s="19">
         <v>0.40277777777777773</v>
@@ -8373,13 +8373,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D106" s="15">
         <v>0.68125000000000002</v>
@@ -8402,13 +8402,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D107" s="15">
         <v>0.70277777777777783</v>
@@ -8431,13 +8431,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D108" s="15">
         <v>0.69791666666666663</v>
@@ -8460,13 +8460,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D109" s="15">
         <v>0.67222222222222217</v>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C110" s="19">
         <v>0.39097222222222222</v>
@@ -8518,10 +8518,10 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C111" s="19">
         <v>0.37916666666666665</v>
@@ -8547,13 +8547,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D112" s="15">
         <v>0.6958333333333333</v>
@@ -8576,10 +8576,10 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C113" s="19">
         <v>0.38472222222222219</v>
@@ -8605,10 +8605,10 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C114" s="19">
         <v>0.37777777777777777</v>
@@ -8634,13 +8634,13 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D115" s="15">
         <v>0.68541666666666667</v>
@@ -8663,10 +8663,10 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C116" s="19">
         <v>0.39583333333333331</v>
@@ -8692,10 +8692,10 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C117" s="19">
         <v>0.38541666666666669</v>
@@ -8721,13 +8721,13 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D118" s="15">
         <v>0.68125000000000002</v>
@@ -8750,10 +8750,10 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C119" s="19">
         <v>0.39166666666666666</v>
@@ -8779,13 +8779,13 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D120" s="15">
         <v>0.67152777777777783</v>
@@ -8808,13 +8808,13 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D121" s="15">
         <v>0.70624999999999993</v>
@@ -8837,13 +8837,13 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D122" s="15">
         <v>0.67847222222222225</v>
@@ -8866,10 +8866,10 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C123" s="15">
         <v>0.37847222222222227</v>
@@ -8895,10 +8895,10 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C124" s="15">
         <v>0.4055555555555555</v>
@@ -8924,10 +8924,10 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C125" s="15">
         <v>0.39999999999999997</v>
@@ -8986,13 +8986,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -9000,13 +9000,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D2" s="15">
         <v>0.83333333333333337</v>
@@ -9017,13 +9017,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D3" s="15">
         <v>0.83333333333333337</v>
@@ -9034,13 +9034,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D4" s="15">
         <v>0.83333333333333337</v>
@@ -9051,13 +9051,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D5" s="15">
         <v>0.83333333333333337</v>
@@ -9068,13 +9068,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" s="15">
         <v>0.83333333333333337</v>
@@ -9085,13 +9085,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D7" s="15">
         <v>0.83333333333333337</v>
@@ -9102,13 +9102,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D8" s="15">
         <v>0.83333333333333337</v>
@@ -9119,13 +9119,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D9" s="15">
         <v>0.83333333333333304</v>
@@ -9136,13 +9136,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D10" s="15">
         <v>0.83333333333333304</v>
@@ -9153,13 +9153,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D11" s="15">
         <v>0.83333333333333304</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="15">
         <v>0.83333333333333304</v>
@@ -9187,13 +9187,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" s="15">
         <v>0.83333333333333304</v>
@@ -9204,13 +9204,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D14" s="15">
         <v>0.83333333333333304</v>
@@ -9221,13 +9221,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D15" s="15">
         <v>0.83333333333333304</v>
@@ -9238,13 +9238,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16" s="15">
         <v>0.83333333333333304</v>
@@ -9255,13 +9255,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D17" s="15">
         <v>0.83333333333333304</v>
@@ -9272,13 +9272,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" s="15">
         <v>0.83333333333333304</v>
@@ -9289,13 +9289,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D19" s="15">
         <v>0.83333333333333304</v>
@@ -9306,13 +9306,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D20" s="15">
         <v>0.83333333333333304</v>
@@ -9323,13 +9323,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D21" s="15">
         <v>0.83333333333333304</v>
@@ -9340,13 +9340,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D22" s="15">
         <v>0.83333333333333304</v>
@@ -9357,13 +9357,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D23" s="15">
         <v>0.83333333333333304</v>
@@ -9374,13 +9374,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D24" s="15">
         <v>0.83333333333333304</v>
@@ -9391,13 +9391,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D25" s="15">
         <v>0.83333333333333304</v>
@@ -9408,13 +9408,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D26" s="15">
         <v>0.83333333333333304</v>
@@ -9425,13 +9425,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D27" s="15">
         <v>0.83333333333333304</v>
@@ -9442,13 +9442,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D28" s="15">
         <v>0.83333333333333304</v>
@@ -9459,13 +9459,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D29" s="15">
         <v>0.83333333333333304</v>
@@ -9476,13 +9476,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D30" s="15">
         <v>0.83333333333333304</v>
@@ -9493,13 +9493,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D31" s="15">
         <v>0.83333333333333304</v>
@@ -9510,13 +9510,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D32" s="15">
         <v>0.83333333333333304</v>
@@ -9527,13 +9527,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D33" s="15">
         <v>0.58333333333333337</v>
@@ -9544,13 +9544,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D34" s="15">
         <v>0.58333333333333337</v>
@@ -9561,13 +9561,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D35" s="15">
         <v>0.58333333333333337</v>
@@ -9578,13 +9578,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D36" s="15">
         <v>0.58333333333333337</v>
@@ -9595,13 +9595,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="15">
         <v>0.58333333333333337</v>
@@ -9612,13 +9612,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D38" s="15">
         <v>0.58333333333333304</v>
@@ -9629,13 +9629,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D39" s="15">
         <v>0.58333333333333304</v>
@@ -9646,13 +9646,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D40" s="15">
         <v>0.58333333333333304</v>
@@ -9663,13 +9663,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D41" s="15">
         <v>0.58333333333333304</v>
@@ -9680,13 +9680,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D42" s="15">
         <v>0.58333333333333304</v>
@@ -9697,13 +9697,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D43" s="15">
         <v>0.58333333333333304</v>
@@ -9714,13 +9714,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D44" s="15">
         <v>0.58333333333333304</v>
@@ -9731,13 +9731,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D45" s="15">
         <v>0.58333333333333304</v>
@@ -9748,13 +9748,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D46" s="15">
         <v>0.58333333333333304</v>
@@ -9765,13 +9765,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D47" s="15">
         <v>0.58333333333333304</v>
@@ -9782,13 +9782,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D48" s="15">
         <v>0.58333333333333304</v>
@@ -9799,13 +9799,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D49" s="15">
         <v>0.58333333333333304</v>
@@ -9816,13 +9816,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50" s="15">
         <v>0.58333333333333304</v>
@@ -9833,13 +9833,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D51" s="15">
         <v>0.58333333333333304</v>
@@ -9850,13 +9850,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D52" s="15">
         <v>0.58333333333333304</v>
@@ -9867,13 +9867,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D53" s="15">
         <v>0.58333333333333304</v>
@@ -9884,13 +9884,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D54" s="15">
         <v>0.58333333333333304</v>
@@ -9901,13 +9901,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D55" s="15">
         <v>0.58333333333333304</v>
@@ -9918,13 +9918,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D56" s="15">
         <v>0.58333333333333304</v>
@@ -9935,13 +9935,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D57" s="15">
         <v>0.58333333333333304</v>
@@ -9952,13 +9952,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D58" s="15">
         <v>0.58333333333333304</v>
@@ -9969,13 +9969,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D59" s="15">
         <v>0.58333333333333304</v>
@@ -9986,13 +9986,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D60" s="15">
         <v>0.58333333333333304</v>
@@ -10003,13 +10003,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D61" s="15">
         <v>0.58333333333333304</v>
@@ -10020,13 +10020,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D62" s="15">
         <v>0.58333333333333304</v>
@@ -10037,13 +10037,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D63" s="15">
         <v>0.58333333333333304</v>
@@ -10054,13 +10054,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D64" s="15">
         <v>0.58333333333333304</v>
@@ -10071,13 +10071,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D65" s="15">
         <v>0.58333333333333304</v>
@@ -10088,13 +10088,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D66" s="15">
         <v>0.58333333333333304</v>
@@ -10105,13 +10105,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D67" s="15">
         <v>0.58333333333333304</v>
@@ -10122,13 +10122,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D68" s="15">
         <v>0.58333333333333304</v>
@@ -10139,13 +10139,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D69" s="15">
         <v>0.58333333333333304</v>
@@ -10156,13 +10156,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D70" s="15">
         <v>0.58333333333333304</v>
@@ -10173,13 +10173,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D71" s="15">
         <v>0.58333333333333304</v>
@@ -10190,13 +10190,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D72" s="15">
         <v>0.58333333333333304</v>
@@ -10207,13 +10207,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D73" s="15">
         <v>0.58333333333333304</v>
@@ -10224,13 +10224,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D74" s="15">
         <v>0.58333333333333304</v>
@@ -10241,13 +10241,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D75" s="15">
         <v>0.58333333333333304</v>
@@ -10258,13 +10258,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D76" s="15">
         <v>0.58333333333333304</v>
@@ -10275,13 +10275,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D77" s="15">
         <v>0.58333333333333304</v>
@@ -10292,13 +10292,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D78" s="15">
         <v>0.58333333333333304</v>
@@ -10309,13 +10309,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D79" s="15">
         <v>0.58333333333333304</v>
@@ -10326,13 +10326,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D80" s="15">
         <v>0.58333333333333304</v>
@@ -10343,13 +10343,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D81" s="15">
         <v>0.58333333333333304</v>
@@ -10360,13 +10360,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D82" s="15">
         <v>0.58333333333333304</v>
@@ -10377,13 +10377,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D83" s="15">
         <v>0.58333333333333304</v>
@@ -10394,13 +10394,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D84" s="15">
         <v>0.58333333333333304</v>
@@ -10411,13 +10411,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D85" s="15">
         <v>0.58333333333333304</v>
@@ -10428,13 +10428,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D86" s="15">
         <v>0.58333333333333304</v>
@@ -10445,13 +10445,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D87" s="15">
         <v>0.58333333333333304</v>
@@ -10462,13 +10462,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D88" s="15">
         <v>0.58333333333333304</v>
@@ -10479,13 +10479,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D89" s="15">
         <v>0.58333333333333304</v>
@@ -10496,13 +10496,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D90" s="15">
         <v>0.58333333333333304</v>
@@ -10513,13 +10513,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D91" s="15">
         <v>0.58333333333333304</v>
@@ -10530,13 +10530,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D92" s="15">
         <v>0.58333333333333304</v>
@@ -10547,13 +10547,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D93" s="15">
         <v>0.58333333333333304</v>
@@ -10564,13 +10564,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D94" s="15">
         <v>0.58333333333333304</v>
@@ -10581,13 +10581,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="15">
         <v>0.66666666666666663</v>
@@ -10598,13 +10598,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D96" s="15">
         <v>0.66666666666666663</v>
@@ -10615,13 +10615,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D97" s="15">
         <v>0.66666666666666663</v>
@@ -10632,13 +10632,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="15">
         <v>0.66666666666666663</v>
@@ -10649,13 +10649,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D99" s="15">
         <v>0.66666666666666663</v>
@@ -10666,13 +10666,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D100" s="15">
         <v>0.66666666666666663</v>
@@ -10683,13 +10683,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="15">
         <v>0.66666666666666663</v>
@@ -10700,13 +10700,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D102" s="15">
         <v>0.66666666666666663</v>
@@ -10717,13 +10717,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D103" s="15">
         <v>0.66666666666666663</v>
@@ -10734,13 +10734,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D104" s="15">
         <v>0.66666666666666663</v>
@@ -10751,13 +10751,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C105" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D105" s="15">
         <v>0.66666666666666663</v>
@@ -10768,13 +10768,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D106" s="15">
         <v>0.66666666666666663</v>
@@ -10785,13 +10785,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D107" s="15">
         <v>0.66666666666666663</v>
@@ -10802,13 +10802,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="15">
         <v>0.66666666666666663</v>
@@ -10819,13 +10819,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D109" s="15">
         <v>0.66666666666666663</v>
@@ -10836,13 +10836,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D110" s="15">
         <v>0.66666666666666663</v>
@@ -10853,13 +10853,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="15">
         <v>0.66666666666666663</v>
@@ -10870,13 +10870,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D112" s="15">
         <v>0.66666666666666663</v>
@@ -10887,13 +10887,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D113" s="15">
         <v>0.66666666666666663</v>
@@ -10904,13 +10904,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="15">
         <v>0.66666666666666663</v>
@@ -10921,13 +10921,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D115" s="15">
         <v>0.66666666666666663</v>
@@ -10938,13 +10938,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D116" s="15">
         <v>0.66666666666666663</v>
@@ -10955,13 +10955,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="15">
         <v>0.66666666666666663</v>
@@ -10972,13 +10972,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D118" s="15">
         <v>0.66666666666666663</v>
@@ -10989,13 +10989,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D119" s="15">
         <v>0.66666666666666663</v>
@@ -11006,13 +11006,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="15">
         <v>0.66666666666666663</v>
@@ -11023,13 +11023,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D121" s="15">
         <v>0.66666666666666663</v>
@@ -11040,13 +11040,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D122" s="15">
         <v>0.66666666666666663</v>
@@ -11057,13 +11057,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D123" s="15">
         <v>0.66666666666666663</v>
@@ -11074,13 +11074,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D124" s="15">
         <v>0.66666666666666663</v>
@@ -11091,13 +11091,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="15">
         <v>0.66666666666666663</v>
